--- a/miniproject/template/Lectures/Lecture 11.xlsx
+++ b/miniproject/template/Lectures/Lecture 11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11300"/>
+    <workbookView windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1128,10 +1128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1215,17 +1215,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,6 +1243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1258,16 +1258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,6 +1274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1289,9 +1298,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,22 +1329,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,7 +1344,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,22 +1359,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,13 +1398,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,13 +1446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,19 +1470,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,24 +1536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1500,19 +1548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,61 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,26 +1685,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,36 +1717,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,153 +1746,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2349,7 +2349,7 @@
   <sheetPr/>
   <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
@@ -2487,11 +2487,11 @@
       </c>
       <c r="J2" s="21">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="21">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="21">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -2505,43 +2505,43 @@
       </c>
       <c r="O2" s="21" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v>L20</v>
+        <v/>
       </c>
       <c r="P2" s="21" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v>What is the concept of "slapdash" ?</v>
+        <v/>
       </c>
       <c r="Q2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T2" s="21" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v/>
+        <v>L31101001</v>
       </c>
       <c r="U2" s="21" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "slapdash" ?</v>
       </c>
       <c r="V2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y2" s="21" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="J3" s="21">
         <f ca="1" t="shared" ref="J3:J66" si="0">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="21">
         <f ca="1" t="shared" ref="K3:K66" si="1">IF(J3&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="21">
         <f t="shared" ref="L3:L66" si="2">IF(LEN(G3)&gt;30,0,1)</f>
@@ -2601,43 +2601,43 @@
       </c>
       <c r="O3" s="21" t="str">
         <f ca="1">IF(J3=1,CONCATENATE("L2",$F3),"")</f>
-        <v>L21101002</v>
+        <v/>
       </c>
       <c r="P3" s="21" t="str">
         <f ca="1" t="shared" ref="P3:P66" si="3">IF(J3=1,CONCATENATE("What is the concept of """,G3,""" ?"),"")</f>
-        <v>What is the concept of "hush money" ?</v>
+        <v/>
       </c>
       <c r="Q3" s="21" t="str">
         <f ca="1" t="shared" ref="Q3:Q66" si="4">IF(J3=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R3" s="21" t="str">
         <f ca="1" t="shared" ref="R3:R66" si="5">IF(J3=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S3" s="21" t="str">
         <f ca="1" t="shared" ref="S3:S66" si="6">IF(J3=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T3" s="21" t="str">
         <f ca="1">IF(K3=1,CONCATENATE("L3",$F3),"")</f>
-        <v/>
+        <v>L31101002</v>
       </c>
       <c r="U3" s="21" t="str">
         <f ca="1" t="shared" ref="U3:U66" si="7">IF(K3=1,CONCATENATE("What is the meaning of """,G3,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "hush money" ?</v>
       </c>
       <c r="V3" s="21" t="str">
         <f ca="1" t="shared" ref="V3:V66" si="8">IF(K3=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W3" s="21" t="str">
         <f ca="1" t="shared" ref="W3:W66" si="9">IF(K3=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X3" s="21" t="str">
         <f ca="1" t="shared" ref="X3:X66" si="10">IF(K3=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y3" s="21" t="str">
         <f t="shared" ref="Y3:Y66" si="11">IF(L3=1,CONCATENATE("L4",$F3),"")</f>
@@ -2775,11 +2775,11 @@
       </c>
       <c r="J5" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="21">
         <f t="shared" si="2"/>
@@ -2793,43 +2793,43 @@
       </c>
       <c r="O5" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101004</v>
+        <v/>
       </c>
       <c r="P5" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a bottle of bubbly" ?</v>
+        <v/>
       </c>
       <c r="Q5" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R5" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S5" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T5" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101004</v>
       </c>
       <c r="U5" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a bottle of bubbly" ?</v>
       </c>
       <c r="V5" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W5" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X5" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y5" s="21" t="str">
         <f t="shared" si="11"/>
@@ -2871,11 +2871,11 @@
       </c>
       <c r="J6" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="21">
         <f t="shared" si="2"/>
@@ -2889,43 +2889,43 @@
       </c>
       <c r="O6" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101005</v>
+        <v/>
       </c>
       <c r="P6" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The song needs more oomph" ?</v>
+        <v/>
       </c>
       <c r="Q6" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R6" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S6" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T6" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101005</v>
       </c>
       <c r="U6" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "The song needs more oomph" ?</v>
       </c>
       <c r="V6" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W6" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X6" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="11"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="J7" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="21">
         <f t="shared" si="2"/>
@@ -2985,43 +2985,43 @@
       </c>
       <c r="O7" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101006</v>
+        <v/>
       </c>
       <c r="P7" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Australians are not mushy about the monarchy" ?</v>
+        <v/>
       </c>
       <c r="Q7" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R7" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S7" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T7" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101006</v>
       </c>
       <c r="U7" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Australians are not mushy about the monarchy" ?</v>
       </c>
       <c r="V7" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W7" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X7" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y7" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="21">
         <f t="shared" si="2"/>
@@ -3081,43 +3081,43 @@
       </c>
       <c r="O8" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101007</v>
+        <v/>
       </c>
       <c r="P8" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He oozes confidence" ?</v>
+        <v/>
       </c>
       <c r="Q8" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R8" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S8" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T8" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101007</v>
       </c>
       <c r="U8" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He oozes confidence" ?</v>
       </c>
       <c r="V8" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W8" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X8" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="J9" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="21">
         <f t="shared" si="2"/>
@@ -3177,43 +3177,43 @@
       </c>
       <c r="O9" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101008</v>
+        <v/>
       </c>
       <c r="P9" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is slurping noodles" ?</v>
+        <v/>
       </c>
       <c r="Q9" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101008</v>
       </c>
       <c r="U9" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is slurping noodles" ?</v>
       </c>
       <c r="V9" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3351,11 +3351,11 @@
       </c>
       <c r="J11" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="21">
         <f t="shared" si="2"/>
@@ -3369,43 +3369,43 @@
       </c>
       <c r="O11" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101010</v>
+        <v/>
       </c>
       <c r="P11" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You must leave yourself some wiggle room." ?</v>
+        <v/>
       </c>
       <c r="Q11" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R11" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S11" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T11" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101010</v>
       </c>
       <c r="U11" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "You must leave yourself some wiggle room." ?</v>
       </c>
       <c r="V11" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W11" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X11" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3421,7 +3421,7 @@
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
     </row>
-    <row r="12" ht="35" spans="1:31">
+    <row r="12" ht="24" spans="1:31">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="J14" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="2"/>
@@ -3657,43 +3657,43 @@
       </c>
       <c r="O14" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101013</v>
+        <v/>
       </c>
       <c r="P14" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "A culinary whizz" ?</v>
+        <v/>
       </c>
       <c r="Q14" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R14" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S14" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T14" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101013</v>
       </c>
       <c r="U14" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "A culinary whizz" ?</v>
       </c>
       <c r="V14" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W14" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X14" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3709,7 +3709,7 @@
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
     </row>
-    <row r="15" ht="35" spans="1:31">
+    <row r="15" ht="24" spans="1:31">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="J16" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="21">
         <f t="shared" si="2"/>
@@ -3849,43 +3849,43 @@
       </c>
       <c r="O16" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101015</v>
+        <v/>
       </c>
       <c r="P16" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Fluffy romantic novels." ?</v>
+        <v/>
       </c>
       <c r="Q16" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R16" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S16" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T16" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101015</v>
       </c>
       <c r="U16" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Fluffy romantic novels." ?</v>
       </c>
       <c r="V16" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W16" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X16" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y16" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="J20" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="21">
         <f t="shared" si="2"/>
@@ -4233,43 +4233,43 @@
       </c>
       <c r="O20" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101019</v>
       </c>
       <c r="P20" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Time ticks away" ?</v>
       </c>
       <c r="Q20" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R20" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S20" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T20" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101019</v>
+        <v/>
       </c>
       <c r="U20" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Time ticks away" ?</v>
+        <v/>
       </c>
       <c r="V20" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W20" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X20" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y20" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4311,11 +4311,11 @@
       </c>
       <c r="J21" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="2"/>
@@ -4329,43 +4329,43 @@
       </c>
       <c r="O21" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101020</v>
       </c>
       <c r="P21" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "We lost a squeaker" ?</v>
       </c>
       <c r="Q21" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R21" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S21" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T21" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101020</v>
+        <v/>
       </c>
       <c r="U21" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "We lost a squeaker" ?</v>
+        <v/>
       </c>
       <c r="V21" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W21" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X21" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y21" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4599,11 +4599,11 @@
       </c>
       <c r="J24" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="2"/>
@@ -4617,43 +4617,43 @@
       </c>
       <c r="O24" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101023</v>
+        <v/>
       </c>
       <c r="P24" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "wimpy  " ?</v>
+        <v/>
       </c>
       <c r="Q24" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R24" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S24" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T24" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101023</v>
       </c>
       <c r="U24" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "wimpy  " ?</v>
       </c>
       <c r="V24" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W24" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X24" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y24" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4669,7 +4669,7 @@
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
     </row>
-    <row r="25" ht="24" spans="1:31">
+    <row r="25" ht="14" spans="1:31">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="J25" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="2"/>
@@ -4713,43 +4713,43 @@
       </c>
       <c r="O25" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101024</v>
+        <v/>
       </c>
       <c r="P25" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "clunky" ?</v>
+        <v/>
       </c>
       <c r="Q25" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R25" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S25" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T25" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101024</v>
       </c>
       <c r="U25" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "clunky" ?</v>
       </c>
       <c r="V25" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W25" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X25" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y25" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="J28" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="21">
         <f t="shared" si="2"/>
@@ -5001,43 +5001,43 @@
       </c>
       <c r="O28" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101027</v>
+        <v/>
       </c>
       <c r="P28" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "fizzle out" ?</v>
+        <v/>
       </c>
       <c r="Q28" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R28" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S28" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T28" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101027</v>
       </c>
       <c r="U28" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "fizzle out" ?</v>
       </c>
       <c r="V28" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W28" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X28" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y28" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="J30" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="2"/>
@@ -5193,43 +5193,43 @@
       </c>
       <c r="O30" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101029</v>
+        <v/>
       </c>
       <c r="P30" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "frumpy" ?</v>
+        <v/>
       </c>
       <c r="Q30" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R30" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S30" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T30" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101029</v>
       </c>
       <c r="U30" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "frumpy" ?</v>
       </c>
       <c r="V30" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W30" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X30" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y30" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="J32" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="21">
         <f t="shared" si="2"/>
@@ -5385,43 +5385,43 @@
       </c>
       <c r="O32" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101031</v>
+        <v/>
       </c>
       <c r="P32" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "creaky court system" ?</v>
+        <v/>
       </c>
       <c r="Q32" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101031</v>
       </c>
       <c r="U32" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "creaky court system" ?</v>
       </c>
       <c r="V32" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="J34" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="2"/>
@@ -5577,43 +5577,43 @@
       </c>
       <c r="O34" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101033</v>
       </c>
       <c r="P34" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a splashy return to show business" ?</v>
       </c>
       <c r="Q34" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R34" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S34" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T34" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101033</v>
+        <v/>
       </c>
       <c r="U34" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a splashy return to show business" ?</v>
+        <v/>
       </c>
       <c r="V34" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W34" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X34" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y34" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5917,7 +5917,7 @@
       <c r="AD37" s="26"/>
       <c r="AE37" s="26"/>
     </row>
-    <row r="38" ht="35" spans="1:31">
+    <row r="38" ht="47" spans="1:31">
       <c r="A38">
         <v>11</v>
       </c>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="J39" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" si="2"/>
@@ -6057,43 +6057,43 @@
       </c>
       <c r="O39" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101038</v>
+        <v/>
       </c>
       <c r="P39" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a thumping headache" ?</v>
+        <v/>
       </c>
       <c r="Q39" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R39" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S39" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T39" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101038</v>
       </c>
       <c r="U39" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a thumping headache" ?</v>
       </c>
       <c r="V39" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W39" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X39" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y39" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6109,7 +6109,7 @@
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
     </row>
-    <row r="40" ht="35" spans="1:31">
+    <row r="40" ht="24" spans="1:31">
       <c r="A40">
         <v>11</v>
       </c>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="J40" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="21">
         <f t="shared" si="2"/>
@@ -6153,43 +6153,43 @@
       </c>
       <c r="O40" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101039</v>
+        <v/>
       </c>
       <c r="P40" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a dazzling display of football skills" ?</v>
+        <v/>
       </c>
       <c r="Q40" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R40" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S40" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T40" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101039</v>
       </c>
       <c r="U40" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a dazzling display of football skills" ?</v>
       </c>
       <c r="V40" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W40" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X40" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y40" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="J41" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="21">
         <f t="shared" si="2"/>
@@ -6249,43 +6249,43 @@
       </c>
       <c r="O41" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102040</v>
+        <v/>
       </c>
       <c r="P41" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "humdrum life" ?</v>
+        <v/>
       </c>
       <c r="Q41" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R41" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S41" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T41" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102040</v>
       </c>
       <c r="U41" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "humdrum life" ?</v>
       </c>
       <c r="V41" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W41" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X41" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y41" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6327,11 +6327,11 @@
       </c>
       <c r="J42" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="21">
         <f t="shared" si="2"/>
@@ -6345,43 +6345,43 @@
       </c>
       <c r="O42" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102041</v>
+        <v/>
       </c>
       <c r="P42" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "hocus-pocus" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102041</v>
       </c>
       <c r="U42" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "hocus-pocus" ?</v>
       </c>
       <c r="V42" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="J43" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="21">
         <f t="shared" si="2"/>
@@ -6441,43 +6441,43 @@
       </c>
       <c r="O43" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102042</v>
+        <v/>
       </c>
       <c r="P43" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "hanky-panky" ?</v>
+        <v/>
       </c>
       <c r="Q43" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R43" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S43" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T43" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102042</v>
       </c>
       <c r="U43" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "hanky-panky" ?</v>
       </c>
       <c r="V43" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W43" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X43" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y43" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6519,11 +6519,11 @@
       </c>
       <c r="J44" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="21">
         <f t="shared" si="2"/>
@@ -6537,43 +6537,43 @@
       </c>
       <c r="O44" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102043</v>
+        <v/>
       </c>
       <c r="P44" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "riff-raff" ?</v>
+        <v/>
       </c>
       <c r="Q44" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R44" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S44" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T44" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102043</v>
       </c>
       <c r="U44" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "riff-raff" ?</v>
       </c>
       <c r="V44" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W44" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X44" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y44" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6615,11 +6615,11 @@
       </c>
       <c r="J45" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="2"/>
@@ -6633,43 +6633,43 @@
       </c>
       <c r="O45" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102044</v>
+        <v/>
       </c>
       <c r="P45" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "hodge-podge" ?</v>
+        <v/>
       </c>
       <c r="Q45" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R45" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S45" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T45" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102044</v>
       </c>
       <c r="U45" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "hodge-podge" ?</v>
       </c>
       <c r="V45" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W45" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X45" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y45" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6903,11 +6903,11 @@
       </c>
       <c r="J48" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="21">
         <f t="shared" si="2"/>
@@ -6921,43 +6921,43 @@
       </c>
       <c r="O48" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102047</v>
+        <v/>
       </c>
       <c r="P48" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "hoity-toity" ?</v>
+        <v/>
       </c>
       <c r="Q48" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R48" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S48" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T48" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102047</v>
       </c>
       <c r="U48" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "hoity-toity" ?</v>
       </c>
       <c r="V48" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W48" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X48" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y48" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7191,11 +7191,11 @@
       </c>
       <c r="J51" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="21">
         <f t="shared" si="2"/>
@@ -7209,43 +7209,43 @@
       </c>
       <c r="O51" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102050</v>
+        <v/>
       </c>
       <c r="P51" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "helter-skelter" ?</v>
+        <v/>
       </c>
       <c r="Q51" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R51" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S51" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T51" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102050</v>
       </c>
       <c r="U51" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "helter-skelter" ?</v>
       </c>
       <c r="V51" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W51" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X51" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y51" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="J55" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="21">
         <f t="shared" si="2"/>
@@ -7593,43 +7593,43 @@
       </c>
       <c r="O55" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103054</v>
       </c>
       <c r="P55" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "sell-by date" ?</v>
       </c>
       <c r="Q55" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R55" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S55" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T55" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103054</v>
+        <v/>
       </c>
       <c r="U55" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "sell-by date" ?</v>
+        <v/>
       </c>
       <c r="V55" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W55" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X55" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y55" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7741,7 +7741,7 @@
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
     </row>
-    <row r="57" ht="24" spans="1:31">
+    <row r="57" ht="35" spans="1:31">
       <c r="A57">
         <v>11</v>
       </c>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="J58" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="21">
         <f t="shared" si="2"/>
@@ -7881,43 +7881,43 @@
       </c>
       <c r="O58" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103057</v>
       </c>
       <c r="P58" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a zig-zag day at the competition" ?</v>
       </c>
       <c r="Q58" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103057</v>
+        <v/>
       </c>
       <c r="U58" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a zig-zag day at the competition" ?</v>
+        <v/>
       </c>
       <c r="V58" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8343,11 +8343,11 @@
       </c>
       <c r="J63" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="21">
         <f t="shared" si="2"/>
@@ -8361,43 +8361,43 @@
       </c>
       <c r="O63" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21103062</v>
+        <v/>
       </c>
       <c r="P63" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "low-carbon future" ?</v>
+        <v/>
       </c>
       <c r="Q63" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R63" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S63" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T63" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31103062</v>
       </c>
       <c r="U63" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "low-carbon future" ?</v>
       </c>
       <c r="V63" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W63" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X63" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y63" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="J64" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="21">
         <f t="shared" si="2"/>
@@ -8457,43 +8457,43 @@
       </c>
       <c r="O64" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103063</v>
       </c>
       <c r="P64" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He is a political has-been" ?</v>
       </c>
       <c r="Q64" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103063</v>
+        <v/>
       </c>
       <c r="U64" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He is a political has-been" ?</v>
+        <v/>
       </c>
       <c r="V64" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8605,7 +8605,7 @@
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
     </row>
-    <row r="66" ht="24" spans="1:31">
+    <row r="66" ht="35" spans="1:31">
       <c r="A66">
         <v>11</v>
       </c>
@@ -8631,11 +8631,11 @@
       </c>
       <c r="J66" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="21">
         <f t="shared" si="2"/>
@@ -8649,43 +8649,43 @@
       </c>
       <c r="O66" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103065</v>
       </c>
       <c r="P66" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "cookie-cutter approach to education" ?</v>
       </c>
       <c r="Q66" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R66" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S66" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T66" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103065</v>
+        <v/>
       </c>
       <c r="U66" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "cookie-cutter approach to education" ?</v>
+        <v/>
       </c>
       <c r="V66" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W66" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X66" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y66" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="J67" s="21">
         <f ca="1" t="shared" ref="J67:J119" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="21">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="21">
         <f t="shared" ref="L67:L113" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -8745,43 +8745,43 @@
       </c>
       <c r="O67" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103066</v>
       </c>
       <c r="P67" s="21" t="str">
         <f ca="1" t="shared" ref="P67:P113" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "see-no-evil prison guards" ?</v>
       </c>
       <c r="Q67" s="21" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R67" s="21" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S67" s="21" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T67" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103066</v>
+        <v/>
       </c>
       <c r="U67" s="21" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v>What is the meaning of "see-no-evil prison guards" ?</v>
+        <v/>
       </c>
       <c r="V67" s="21" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W67" s="21" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X67" s="21" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y67" s="21" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="J68" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="21">
         <f t="shared" si="17"/>
@@ -8841,43 +8841,43 @@
       </c>
       <c r="O68" s="21" t="str">
         <f ca="1" t="shared" ref="O68:O119" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v>L21103067</v>
+        <v/>
       </c>
       <c r="P68" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "How great is the champagne? It's $12,000-great." ?</v>
+        <v/>
       </c>
       <c r="Q68" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R68" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S68" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T68" s="21" t="str">
         <f ca="1" t="shared" ref="T68:T119" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v/>
+        <v>L31103067</v>
       </c>
       <c r="U68" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "How great is the champagne? It's $12,000-great." ?</v>
       </c>
       <c r="V68" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W68" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X68" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y68" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="J70" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="21">
         <f t="shared" si="17"/>
@@ -9033,43 +9033,43 @@
       </c>
       <c r="O70" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103069</v>
+        <v/>
       </c>
       <c r="P70" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "shoe-leather journalism" ?</v>
+        <v/>
       </c>
       <c r="Q70" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R70" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S70" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T70" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103069</v>
       </c>
       <c r="U70" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "shoe-leather journalism" ?</v>
       </c>
       <c r="V70" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W70" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X70" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y70" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9111,11 +9111,11 @@
       </c>
       <c r="J71" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="21">
         <f t="shared" si="17"/>
@@ -9129,43 +9129,43 @@
       </c>
       <c r="O71" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103070</v>
+        <v/>
       </c>
       <c r="P71" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He has gone dairy-free for 3 years" ?</v>
+        <v/>
       </c>
       <c r="Q71" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R71" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S71" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T71" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103070</v>
       </c>
       <c r="U71" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He has gone dairy-free for 3 years" ?</v>
       </c>
       <c r="V71" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W71" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X71" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y71" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="J73" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="21">
         <f t="shared" si="17"/>
@@ -9321,43 +9321,43 @@
       </c>
       <c r="O73" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103072</v>
+        <v/>
       </c>
       <c r="P73" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "stale-dated cheques" ?</v>
+        <v/>
       </c>
       <c r="Q73" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R73" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S73" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T73" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103072</v>
       </c>
       <c r="U73" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "stale-dated cheques" ?</v>
       </c>
       <c r="V73" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W73" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X73" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y73" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="J76" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="21">
         <f t="shared" si="17"/>
@@ -9609,43 +9609,43 @@
       </c>
       <c r="O76" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103075</v>
       </c>
       <c r="P76" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I was back-seat driving her" ?</v>
       </c>
       <c r="Q76" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R76" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S76" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T76" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103075</v>
+        <v/>
       </c>
       <c r="U76" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I was back-seat driving her" ?</v>
+        <v/>
       </c>
       <c r="V76" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W76" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X76" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y76" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9975,11 +9975,11 @@
       </c>
       <c r="J80" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="21">
         <f t="shared" si="17"/>
@@ -9993,43 +9993,43 @@
       </c>
       <c r="O80" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103079</v>
+        <v/>
       </c>
       <c r="P80" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I stood there, wide-eyed and open-mouthed" ?</v>
+        <v/>
       </c>
       <c r="Q80" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103079</v>
       </c>
       <c r="U80" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I stood there, wide-eyed and open-mouthed" ?</v>
       </c>
       <c r="V80" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="J82" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="21">
         <f t="shared" si="17"/>
@@ -10185,43 +10185,43 @@
       </c>
       <c r="O82" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103081</v>
+        <v/>
       </c>
       <c r="P82" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "latte-loving" ?</v>
+        <v/>
       </c>
       <c r="Q82" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R82" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S82" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T82" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103081</v>
       </c>
       <c r="U82" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "latte-loving" ?</v>
       </c>
       <c r="V82" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W82" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X82" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y82" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10359,11 +10359,11 @@
       </c>
       <c r="J84" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="21">
         <f t="shared" si="17"/>
@@ -10377,43 +10377,43 @@
       </c>
       <c r="O84" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103083</v>
       </c>
       <c r="P84" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He was Google-stalking her" ?</v>
       </c>
       <c r="Q84" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R84" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S84" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T84" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103083</v>
+        <v/>
       </c>
       <c r="U84" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He was Google-stalking her" ?</v>
+        <v/>
       </c>
       <c r="V84" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W84" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X84" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y84" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10525,7 +10525,7 @@
       <c r="AD85" s="25"/>
       <c r="AE85" s="25"/>
     </row>
-    <row r="86" ht="35" spans="1:31">
+    <row r="86" ht="24" spans="1:31">
       <c r="A86">
         <v>11</v>
       </c>
@@ -10551,11 +10551,11 @@
       </c>
       <c r="J86" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="21">
         <f t="shared" si="17"/>
@@ -10569,43 +10569,43 @@
       </c>
       <c r="O86" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103085</v>
+        <v/>
       </c>
       <c r="P86" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Sunday is a non-publishing day" ?</v>
+        <v/>
       </c>
       <c r="Q86" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R86" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S86" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T86" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103085</v>
       </c>
       <c r="U86" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Sunday is a non-publishing day" ?</v>
       </c>
       <c r="V86" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W86" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X86" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y86" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10647,11 +10647,11 @@
       </c>
       <c r="J87" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="21">
         <f t="shared" si="17"/>
@@ -10665,43 +10665,43 @@
       </c>
       <c r="O87" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103086</v>
+        <v/>
       </c>
       <c r="P87" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Live your life eczema-free" ?</v>
+        <v/>
       </c>
       <c r="Q87" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R87" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S87" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T87" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103086</v>
       </c>
       <c r="U87" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Live your life eczema-free" ?</v>
       </c>
       <c r="V87" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W87" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X87" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y87" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="J88" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" s="21">
         <f t="shared" si="17"/>
@@ -10761,43 +10761,43 @@
       </c>
       <c r="O88" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103087</v>
       </c>
       <c r="P88" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "picture-perfect" ?</v>
       </c>
       <c r="Q88" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R88" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S88" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T88" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103087</v>
+        <v/>
       </c>
       <c r="U88" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "picture-perfect" ?</v>
+        <v/>
       </c>
       <c r="V88" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W88" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X88" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y88" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10935,11 +10935,11 @@
       </c>
       <c r="J90" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="21">
         <f t="shared" si="17"/>
@@ -10953,43 +10953,43 @@
       </c>
       <c r="O90" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103089</v>
       </c>
       <c r="P90" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "trickle-down economics" ?</v>
       </c>
       <c r="Q90" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R90" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S90" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T90" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103089</v>
+        <v/>
       </c>
       <c r="U90" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "trickle-down economics" ?</v>
+        <v/>
       </c>
       <c r="V90" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W90" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X90" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y90" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11127,11 +11127,11 @@
       </c>
       <c r="J92" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="21">
         <f t="shared" si="17"/>
@@ -11145,43 +11145,43 @@
       </c>
       <c r="O92" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103091</v>
       </c>
       <c r="P92" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "free-range chicken" ?</v>
       </c>
       <c r="Q92" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R92" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S92" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T92" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103091</v>
+        <v/>
       </c>
       <c r="U92" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "free-range chicken" ?</v>
+        <v/>
       </c>
       <c r="V92" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W92" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X92" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y92" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11223,11 +11223,11 @@
       </c>
       <c r="J93" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="21">
         <f t="shared" si="17"/>
@@ -11241,43 +11241,43 @@
       </c>
       <c r="O93" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103092</v>
       </c>
       <c r="P93" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "dress-for-success suits" ?</v>
       </c>
       <c r="Q93" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R93" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S93" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T93" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103092</v>
+        <v/>
       </c>
       <c r="U93" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "dress-for-success suits" ?</v>
+        <v/>
       </c>
       <c r="V93" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W93" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X93" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y93" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11293,7 +11293,7 @@
       <c r="AD93" s="25"/>
       <c r="AE93" s="25"/>
     </row>
-    <row r="94" ht="35" spans="1:31">
+    <row r="94" ht="24" spans="1:31">
       <c r="A94">
         <v>11</v>
       </c>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="J94" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="21">
         <f t="shared" si="17"/>
@@ -11337,43 +11337,43 @@
       </c>
       <c r="O94" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103093</v>
+        <v/>
       </c>
       <c r="P94" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of ""I-work-therefore-I-am" philosophy" ?</v>
+        <v/>
       </c>
       <c r="Q94" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R94" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S94" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T94" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103093</v>
       </c>
       <c r="U94" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of ""I-work-therefore-I-am" philosophy" ?</v>
       </c>
       <c r="V94" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W94" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X94" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y94" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11389,7 +11389,7 @@
       <c r="AD94" s="26"/>
       <c r="AE94" s="26"/>
     </row>
-    <row r="95" ht="24" spans="1:31">
+    <row r="95" ht="35" spans="1:31">
       <c r="A95">
         <v>11</v>
       </c>
@@ -11415,11 +11415,11 @@
       </c>
       <c r="J95" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="21">
         <f t="shared" si="17"/>
@@ -11433,43 +11433,43 @@
       </c>
       <c r="O95" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103094</v>
       </c>
       <c r="P95" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He kissed the ground pope-style" ?</v>
       </c>
       <c r="Q95" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R95" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S95" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T95" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103094</v>
+        <v/>
       </c>
       <c r="U95" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He kissed the ground pope-style" ?</v>
+        <v/>
       </c>
       <c r="V95" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W95" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X95" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y95" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="J97" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="21">
         <f t="shared" si="17"/>
@@ -11625,43 +11625,43 @@
       </c>
       <c r="O97" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104096</v>
       </c>
       <c r="P97" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Our hotel reservations got all screwed up" ?</v>
       </c>
       <c r="Q97" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R97" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S97" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T97" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104096</v>
+        <v/>
       </c>
       <c r="U97" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Our hotel reservations got all screwed up" ?</v>
+        <v/>
       </c>
       <c r="V97" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W97" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X97" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y97" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11677,7 +11677,7 @@
       <c r="AD97" s="25"/>
       <c r="AE97" s="25"/>
     </row>
-    <row r="98" ht="24" spans="1:31">
+    <row r="98" ht="35" spans="1:31">
       <c r="A98">
         <v>11</v>
       </c>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="J98" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" s="21">
         <f t="shared" si="17"/>
@@ -11721,43 +11721,43 @@
       </c>
       <c r="O98" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104097</v>
       </c>
       <c r="P98" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "another government screw-up" ?</v>
       </c>
       <c r="Q98" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R98" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S98" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T98" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104097</v>
+        <v/>
       </c>
       <c r="U98" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "another government screw-up" ?</v>
+        <v/>
       </c>
       <c r="V98" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W98" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X98" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y98" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11799,11 +11799,11 @@
       </c>
       <c r="J99" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="21">
         <f t="shared" si="17"/>
@@ -11817,43 +11817,43 @@
       </c>
       <c r="O99" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104098</v>
       </c>
       <c r="P99" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He saw off his challenge" ?</v>
       </c>
       <c r="Q99" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R99" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S99" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T99" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104098</v>
+        <v/>
       </c>
       <c r="U99" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He saw off his challenge" ?</v>
+        <v/>
       </c>
       <c r="V99" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W99" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X99" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y99" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="J100" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="21">
         <f t="shared" si="17"/>
@@ -11913,43 +11913,43 @@
       </c>
       <c r="O100" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104099</v>
+        <v/>
       </c>
       <c r="P100" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He flamed out quickly" ?</v>
+        <v/>
       </c>
       <c r="Q100" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R100" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S100" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T100" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104099</v>
       </c>
       <c r="U100" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He flamed out quickly" ?</v>
       </c>
       <c r="V100" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W100" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X100" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y100" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11965,7 +11965,7 @@
       <c r="AD100" s="25"/>
       <c r="AE100" s="25"/>
     </row>
-    <row r="101" ht="35" spans="1:31">
+    <row r="101" ht="24" spans="1:31">
       <c r="A101">
         <v>11</v>
       </c>
@@ -11991,11 +11991,11 @@
       </c>
       <c r="J101" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="21">
         <f t="shared" si="17"/>
@@ -12009,43 +12009,43 @@
       </c>
       <c r="O101" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104100</v>
+        <v/>
       </c>
       <c r="P101" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Hillary's book is slapped together" ?</v>
+        <v/>
       </c>
       <c r="Q101" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R101" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S101" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T101" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104100</v>
       </c>
       <c r="U101" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Hillary's book is slapped together" ?</v>
       </c>
       <c r="V101" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W101" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X101" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y101" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="J103" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="21">
         <f t="shared" si="17"/>
@@ -12201,43 +12201,43 @@
       </c>
       <c r="O103" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104102</v>
       </c>
       <c r="P103" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I am not cut out to be a teacher" ?</v>
       </c>
       <c r="Q103" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R103" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S103" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T103" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104102</v>
+        <v/>
       </c>
       <c r="U103" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I am not cut out to be a teacher" ?</v>
+        <v/>
       </c>
       <c r="V103" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W103" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X103" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y103" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12279,11 +12279,11 @@
       </c>
       <c r="J104" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="21">
         <f t="shared" si="17"/>
@@ -12297,43 +12297,43 @@
       </c>
       <c r="O104" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104103</v>
+        <v/>
       </c>
       <c r="P104" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Why don't you level with me?" ?</v>
+        <v/>
       </c>
       <c r="Q104" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R104" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S104" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T104" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104103</v>
       </c>
       <c r="U104" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Why don't you level with me?" ?</v>
       </c>
       <c r="V104" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W104" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X104" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y104" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12375,11 +12375,11 @@
       </c>
       <c r="J105" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="21">
         <f t="shared" si="17"/>
@@ -12393,43 +12393,43 @@
       </c>
       <c r="O105" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104104</v>
+        <v/>
       </c>
       <c r="P105" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Trump and Hillary are ready to square off" ?</v>
+        <v/>
       </c>
       <c r="Q105" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R105" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S105" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T105" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104104</v>
       </c>
       <c r="U105" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Trump and Hillary are ready to square off" ?</v>
       </c>
       <c r="V105" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W105" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X105" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y105" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="J106" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="21">
         <f t="shared" si="17"/>
@@ -12489,43 +12489,43 @@
       </c>
       <c r="O106" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104105</v>
       </c>
       <c r="P106" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The final list has been whittled down to just 4 candidates" ?</v>
       </c>
       <c r="Q106" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R106" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S106" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T106" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104105</v>
+        <v/>
       </c>
       <c r="U106" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The final list has been whittled down to just 4 candidates" ?</v>
+        <v/>
       </c>
       <c r="V106" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W106" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X106" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y106" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12567,11 +12567,11 @@
       </c>
       <c r="J107" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="21">
         <f t="shared" si="17"/>
@@ -12585,43 +12585,43 @@
       </c>
       <c r="O107" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104106</v>
+        <v/>
       </c>
       <c r="P107" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Let's see how things pan out" ?</v>
+        <v/>
       </c>
       <c r="Q107" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R107" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S107" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T107" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104106</v>
       </c>
       <c r="U107" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Let's see how things pan out" ?</v>
       </c>
       <c r="V107" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W107" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X107" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y107" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12829,7 +12829,7 @@
       <c r="AD109" s="25"/>
       <c r="AE109" s="25"/>
     </row>
-    <row r="110" ht="24" spans="1:31">
+    <row r="110" ht="35" spans="1:31">
       <c r="A110">
         <v>11</v>
       </c>
@@ -12951,11 +12951,11 @@
       </c>
       <c r="J111" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="21">
         <f t="shared" si="17"/>
@@ -12969,43 +12969,43 @@
       </c>
       <c r="O111" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104110</v>
       </c>
       <c r="P111" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Personal phone calls are frowned on at work" ?</v>
       </c>
       <c r="Q111" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104110</v>
+        <v/>
       </c>
       <c r="U111" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Personal phone calls are frowned on at work" ?</v>
+        <v/>
       </c>
       <c r="V111" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="21" t="str">
         <f t="shared" si="26"/>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="J112" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="21">
         <f t="shared" si="17"/>
@@ -13065,43 +13065,43 @@
       </c>
       <c r="O112" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104111</v>
+        <v/>
       </c>
       <c r="P112" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The thirty-thousand-dollar pay is not to be sneezed at" ?</v>
+        <v/>
       </c>
       <c r="Q112" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R112" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S112" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T112" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104111</v>
       </c>
       <c r="U112" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The thirty-thousand-dollar pay is not to be sneezed at" ?</v>
       </c>
       <c r="V112" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W112" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X112" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y112" s="21" t="str">
         <f t="shared" si="26"/>
@@ -13143,11 +13143,11 @@
       </c>
       <c r="J113" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="21">
         <f t="shared" si="17"/>
@@ -13161,43 +13161,43 @@
       </c>
       <c r="O113" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104112</v>
       </c>
       <c r="P113" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "They are dolling up the company for sale" ?</v>
       </c>
       <c r="Q113" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R113" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S113" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T113" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104112</v>
+        <v/>
       </c>
       <c r="U113" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "They are dolling up the company for sale" ?</v>
+        <v/>
       </c>
       <c r="V113" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W113" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X113" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y113" s="21" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 11.xlsx
+++ b/miniproject/template/Lectures/Lecture 11.xlsx
@@ -40,10 +40,10 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Meaning （English）</t>
-  </si>
-  <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Meaning（中文）</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1128,10 +1128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1221,25 +1221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,16 +1236,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,47 +1283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1335,6 +1306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1344,7 +1322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,9 +1335,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,25 +1404,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1452,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,13 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,79 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,31 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,6 +1686,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1706,21 +1715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1728,6 +1722,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1750,31 +1759,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1784,148 +1784,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2349,8 +2349,8 @@
   <sheetPr/>
   <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -2487,11 +2487,11 @@
       </c>
       <c r="J2" s="21">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="21">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="21">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -2505,43 +2505,43 @@
       </c>
       <c r="O2" s="21" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v/>
+        <v>L20</v>
       </c>
       <c r="P2" s="21" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "slapdash" ?</v>
       </c>
       <c r="Q2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S2" s="21" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T2" s="21" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v>L31101001</v>
+        <v/>
       </c>
       <c r="U2" s="21" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v>What is the meaning of "slapdash" ?</v>
+        <v/>
       </c>
       <c r="V2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X2" s="21" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y2" s="21" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -2871,11 +2871,11 @@
       </c>
       <c r="J6" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="21">
         <f t="shared" si="2"/>
@@ -2889,43 +2889,43 @@
       </c>
       <c r="O6" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101005</v>
       </c>
       <c r="P6" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The song needs more oomph" ?</v>
       </c>
       <c r="Q6" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R6" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S6" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T6" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101005</v>
+        <v/>
       </c>
       <c r="U6" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The song needs more oomph" ?</v>
+        <v/>
       </c>
       <c r="V6" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W6" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X6" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y6" s="21" t="str">
         <f t="shared" si="11"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="J7" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="21">
         <f t="shared" si="2"/>
@@ -2985,43 +2985,43 @@
       </c>
       <c r="O7" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101006</v>
       </c>
       <c r="P7" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Australians are not mushy about the monarchy" ?</v>
       </c>
       <c r="Q7" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R7" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S7" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T7" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101006</v>
+        <v/>
       </c>
       <c r="U7" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Australians are not mushy about the monarchy" ?</v>
+        <v/>
       </c>
       <c r="V7" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W7" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X7" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y7" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="21">
         <f t="shared" si="2"/>
@@ -3081,43 +3081,43 @@
       </c>
       <c r="O8" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101007</v>
       </c>
       <c r="P8" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He oozes confidence" ?</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R8" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S8" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T8" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101007</v>
+        <v/>
       </c>
       <c r="U8" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He oozes confidence" ?</v>
+        <v/>
       </c>
       <c r="V8" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W8" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X8" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y8" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3351,11 +3351,11 @@
       </c>
       <c r="J11" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="21">
         <f t="shared" si="2"/>
@@ -3369,43 +3369,43 @@
       </c>
       <c r="O11" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101010</v>
       </c>
       <c r="P11" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "You must leave yourself some wiggle room." ?</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R11" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S11" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T11" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101010</v>
+        <v/>
       </c>
       <c r="U11" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "You must leave yourself some wiggle room." ?</v>
+        <v/>
       </c>
       <c r="V11" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W11" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X11" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3447,11 +3447,11 @@
       </c>
       <c r="J12" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="21">
         <f t="shared" si="2"/>
@@ -3465,43 +3465,43 @@
       </c>
       <c r="O12" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101011</v>
+        <v/>
       </c>
       <c r="P12" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He whizzed through his homework" ?</v>
+        <v/>
       </c>
       <c r="Q12" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R12" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S12" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T12" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101011</v>
       </c>
       <c r="U12" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He whizzed through his homework" ?</v>
       </c>
       <c r="V12" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W12" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X12" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="J13" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" si="2"/>
@@ -3561,43 +3561,43 @@
       </c>
       <c r="O13" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101012</v>
+        <v/>
       </c>
       <c r="P13" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is a whizz with the computer. " ?</v>
+        <v/>
       </c>
       <c r="Q13" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R13" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S13" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T13" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101012</v>
       </c>
       <c r="U13" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is a whizz with the computer. " ?</v>
       </c>
       <c r="V13" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W13" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X13" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y13" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="J14" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="2"/>
@@ -3657,43 +3657,43 @@
       </c>
       <c r="O14" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101013</v>
       </c>
       <c r="P14" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "A culinary whizz" ?</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R14" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S14" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T14" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101013</v>
+        <v/>
       </c>
       <c r="U14" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "A culinary whizz" ?</v>
+        <v/>
       </c>
       <c r="V14" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W14" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X14" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y14" s="21" t="str">
         <f t="shared" si="11"/>
@@ -3735,11 +3735,11 @@
       </c>
       <c r="J15" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="21">
         <f t="shared" si="2"/>
@@ -3753,43 +3753,43 @@
       </c>
       <c r="O15" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101014</v>
+        <v/>
       </c>
       <c r="P15" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Everyone needs a friend to be goofy with" ?</v>
+        <v/>
       </c>
       <c r="Q15" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R15" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S15" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T15" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101014</v>
       </c>
       <c r="U15" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Everyone needs a friend to be goofy with" ?</v>
       </c>
       <c r="V15" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W15" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X15" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y15" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4311,11 +4311,11 @@
       </c>
       <c r="J21" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="2"/>
@@ -4329,43 +4329,43 @@
       </c>
       <c r="O21" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101020</v>
+        <v/>
       </c>
       <c r="P21" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "We lost a squeaker" ?</v>
+        <v/>
       </c>
       <c r="Q21" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R21" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S21" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T21" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101020</v>
       </c>
       <c r="U21" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "We lost a squeaker" ?</v>
       </c>
       <c r="V21" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W21" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X21" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y21" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="J23" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="21">
         <f t="shared" si="2"/>
@@ -4521,43 +4521,43 @@
       </c>
       <c r="O23" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101022</v>
+        <v/>
       </c>
       <c r="P23" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "clingy boyfriend" ?</v>
+        <v/>
       </c>
       <c r="Q23" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R23" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S23" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T23" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101022</v>
       </c>
       <c r="U23" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "clingy boyfriend" ?</v>
       </c>
       <c r="V23" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W23" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X23" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y23" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4573,7 +4573,7 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
     </row>
-    <row r="24" ht="14" spans="1:31">
+    <row r="24" ht="24" spans="1:31">
       <c r="A24">
         <v>11</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
     </row>
-    <row r="25" ht="14" spans="1:31">
+    <row r="25" ht="24" spans="1:31">
       <c r="A25">
         <v>11</v>
       </c>
@@ -4695,11 +4695,11 @@
       </c>
       <c r="J25" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="2"/>
@@ -4713,43 +4713,43 @@
       </c>
       <c r="O25" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101024</v>
       </c>
       <c r="P25" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "clunky" ?</v>
       </c>
       <c r="Q25" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R25" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S25" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T25" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101024</v>
+        <v/>
       </c>
       <c r="U25" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "clunky" ?</v>
+        <v/>
       </c>
       <c r="V25" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W25" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X25" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y25" s="21" t="str">
         <f t="shared" si="11"/>
@@ -4791,11 +4791,11 @@
       </c>
       <c r="J26" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="2"/>
@@ -4809,43 +4809,43 @@
       </c>
       <c r="O26" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101025</v>
+        <v/>
       </c>
       <c r="P26" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "cuddly" ?</v>
+        <v/>
       </c>
       <c r="Q26" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R26" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S26" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T26" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101025</v>
       </c>
       <c r="U26" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "cuddly" ?</v>
       </c>
       <c r="V26" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W26" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X26" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y26" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="J30" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="2"/>
@@ -5193,43 +5193,43 @@
       </c>
       <c r="O30" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101029</v>
       </c>
       <c r="P30" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "frumpy" ?</v>
       </c>
       <c r="Q30" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R30" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S30" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T30" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101029</v>
+        <v/>
       </c>
       <c r="U30" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "frumpy" ?</v>
+        <v/>
       </c>
       <c r="V30" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W30" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X30" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y30" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5463,11 +5463,11 @@
       </c>
       <c r="J33" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="21">
         <f t="shared" si="2"/>
@@ -5481,43 +5481,43 @@
       </c>
       <c r="O33" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101032</v>
+        <v/>
       </c>
       <c r="P33" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "cushy job" ?</v>
+        <v/>
       </c>
       <c r="Q33" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R33" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S33" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T33" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101032</v>
       </c>
       <c r="U33" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "cushy job" ?</v>
       </c>
       <c r="V33" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W33" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X33" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y33" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5533,7 +5533,7 @@
       <c r="AD33" s="26"/>
       <c r="AE33" s="26"/>
     </row>
-    <row r="34" ht="35" spans="1:31">
+    <row r="34" ht="24" spans="1:31">
       <c r="A34">
         <v>11</v>
       </c>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="J34" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="2"/>
@@ -5577,43 +5577,43 @@
       </c>
       <c r="O34" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101033</v>
+        <v/>
       </c>
       <c r="P34" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a splashy return to show business" ?</v>
+        <v/>
       </c>
       <c r="Q34" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R34" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S34" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T34" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101033</v>
       </c>
       <c r="U34" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a splashy return to show business" ?</v>
       </c>
       <c r="V34" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W34" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X34" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y34" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5655,11 +5655,11 @@
       </c>
       <c r="J35" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="2"/>
@@ -5673,43 +5673,43 @@
       </c>
       <c r="O35" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21101034</v>
+        <v/>
       </c>
       <c r="P35" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "wrinkled society" ?</v>
+        <v/>
       </c>
       <c r="Q35" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R35" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S35" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T35" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31101034</v>
       </c>
       <c r="U35" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "wrinkled society" ?</v>
       </c>
       <c r="V35" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W35" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X35" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y35" s="21" t="str">
         <f t="shared" si="11"/>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="J37" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="2"/>
@@ -5865,43 +5865,43 @@
       </c>
       <c r="O37" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101036</v>
       </c>
       <c r="P37" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Tutorial centers are popping up all over the city" ?</v>
       </c>
       <c r="Q37" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R37" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S37" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T37" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101036</v>
+        <v/>
       </c>
       <c r="U37" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Tutorial centers are popping up all over the city" ?</v>
+        <v/>
       </c>
       <c r="V37" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W37" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X37" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y37" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="J39" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" si="2"/>
@@ -6057,43 +6057,43 @@
       </c>
       <c r="O39" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21101038</v>
       </c>
       <c r="P39" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a thumping headache" ?</v>
       </c>
       <c r="Q39" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R39" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S39" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T39" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31101038</v>
+        <v/>
       </c>
       <c r="U39" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a thumping headache" ?</v>
+        <v/>
       </c>
       <c r="V39" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W39" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X39" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y39" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6109,7 +6109,7 @@
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
     </row>
-    <row r="40" ht="24" spans="1:31">
+    <row r="40" ht="35" spans="1:31">
       <c r="A40">
         <v>11</v>
       </c>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="J43" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="21">
         <f t="shared" si="2"/>
@@ -6441,43 +6441,43 @@
       </c>
       <c r="O43" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21102042</v>
       </c>
       <c r="P43" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "hanky-panky" ?</v>
       </c>
       <c r="Q43" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R43" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S43" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T43" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31102042</v>
+        <v/>
       </c>
       <c r="U43" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "hanky-panky" ?</v>
+        <v/>
       </c>
       <c r="V43" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W43" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X43" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y43" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6493,7 +6493,7 @@
       <c r="AD43" s="25"/>
       <c r="AE43" s="25"/>
     </row>
-    <row r="44" ht="14" spans="1:31">
+    <row r="44" ht="24" spans="1:31">
       <c r="A44">
         <v>11</v>
       </c>
@@ -6519,11 +6519,11 @@
       </c>
       <c r="J44" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="21">
         <f t="shared" si="2"/>
@@ -6537,43 +6537,43 @@
       </c>
       <c r="O44" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21102043</v>
       </c>
       <c r="P44" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "riff-raff" ?</v>
       </c>
       <c r="Q44" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R44" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S44" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T44" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31102043</v>
+        <v/>
       </c>
       <c r="U44" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "riff-raff" ?</v>
+        <v/>
       </c>
       <c r="V44" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W44" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X44" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y44" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6615,11 +6615,11 @@
       </c>
       <c r="J45" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="21">
         <f t="shared" si="2"/>
@@ -6633,43 +6633,43 @@
       </c>
       <c r="O45" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21102044</v>
       </c>
       <c r="P45" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "hodge-podge" ?</v>
       </c>
       <c r="Q45" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R45" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S45" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T45" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31102044</v>
+        <v/>
       </c>
       <c r="U45" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "hodge-podge" ?</v>
+        <v/>
       </c>
       <c r="V45" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W45" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X45" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y45" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="J46" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="21">
         <f t="shared" si="2"/>
@@ -6729,43 +6729,43 @@
       </c>
       <c r="O46" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102045</v>
+        <v/>
       </c>
       <c r="P46" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "itsy-bitsy" ?</v>
+        <v/>
       </c>
       <c r="Q46" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R46" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S46" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T46" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102045</v>
       </c>
       <c r="U46" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "itsy-bitsy" ?</v>
       </c>
       <c r="V46" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W46" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X46" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y46" s="21" t="str">
         <f t="shared" si="11"/>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="J49" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="21">
         <f t="shared" si="2"/>
@@ -7017,43 +7017,43 @@
       </c>
       <c r="O49" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102048</v>
+        <v/>
       </c>
       <c r="P49" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "filmflam" ?</v>
+        <v/>
       </c>
       <c r="Q49" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R49" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S49" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T49" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102048</v>
       </c>
       <c r="U49" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "filmflam" ?</v>
       </c>
       <c r="V49" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W49" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X49" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y49" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="J52" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="21">
         <f t="shared" si="2"/>
@@ -7305,43 +7305,43 @@
       </c>
       <c r="O52" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102051</v>
+        <v/>
       </c>
       <c r="P52" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "topsy-turvy" ?</v>
+        <v/>
       </c>
       <c r="Q52" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R52" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S52" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T52" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102051</v>
       </c>
       <c r="U52" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "topsy-turvy" ?</v>
       </c>
       <c r="V52" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W52" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X52" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y52" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="J53" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="2"/>
@@ -7401,43 +7401,43 @@
       </c>
       <c r="O53" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21102052</v>
+        <v/>
       </c>
       <c r="P53" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "wishy-washy" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31102052</v>
       </c>
       <c r="U53" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "wishy-washy" ?</v>
       </c>
       <c r="V53" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="J55" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="21">
         <f t="shared" si="2"/>
@@ -7593,43 +7593,43 @@
       </c>
       <c r="O55" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21103054</v>
+        <v/>
       </c>
       <c r="P55" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "sell-by date" ?</v>
+        <v/>
       </c>
       <c r="Q55" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R55" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S55" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T55" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31103054</v>
       </c>
       <c r="U55" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "sell-by date" ?</v>
       </c>
       <c r="V55" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W55" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X55" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y55" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7959,11 +7959,11 @@
       </c>
       <c r="J59" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="21">
         <f t="shared" si="2"/>
@@ -7977,43 +7977,43 @@
       </c>
       <c r="O59" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21103058</v>
+        <v/>
       </c>
       <c r="P59" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a silver-spoon existence" ?</v>
+        <v/>
       </c>
       <c r="Q59" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R59" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S59" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T59" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31103058</v>
       </c>
       <c r="U59" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a silver-spoon existence" ?</v>
       </c>
       <c r="V59" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W59" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X59" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y59" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8055,11 +8055,11 @@
       </c>
       <c r="J60" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="21">
         <f t="shared" si="2"/>
@@ -8073,43 +8073,43 @@
       </c>
       <c r="O60" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103059</v>
       </c>
       <c r="P60" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He gave me the brush-off" ?</v>
       </c>
       <c r="Q60" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103059</v>
+        <v/>
       </c>
       <c r="U60" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He gave me the brush-off" ?</v>
+        <v/>
       </c>
       <c r="V60" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="J61" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="21">
         <f t="shared" si="2"/>
@@ -8169,43 +8169,43 @@
       </c>
       <c r="O61" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21103060</v>
       </c>
       <c r="P61" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "It's a toss-up" ?</v>
       </c>
       <c r="Q61" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R61" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S61" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T61" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31103060</v>
+        <v/>
       </c>
       <c r="U61" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "It's a toss-up" ?</v>
+        <v/>
       </c>
       <c r="V61" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W61" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X61" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y61" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8247,11 +8247,11 @@
       </c>
       <c r="J62" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="21">
         <f t="shared" si="2"/>
@@ -8265,43 +8265,43 @@
       </c>
       <c r="O62" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21103061</v>
+        <v/>
       </c>
       <c r="P62" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "full-term babies" ?</v>
+        <v/>
       </c>
       <c r="Q62" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R62" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S62" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T62" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31103061</v>
       </c>
       <c r="U62" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "full-term babies" ?</v>
       </c>
       <c r="V62" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W62" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X62" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y62" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="J64" s="21">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="21">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="21">
         <f t="shared" si="2"/>
@@ -8457,43 +8457,43 @@
       </c>
       <c r="O64" s="21" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21103063</v>
+        <v/>
       </c>
       <c r="P64" s="21" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is a political has-been" ?</v>
+        <v/>
       </c>
       <c r="Q64" s="21" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R64" s="21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S64" s="21" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T64" s="21" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31103063</v>
       </c>
       <c r="U64" s="21" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is a political has-been" ?</v>
       </c>
       <c r="V64" s="21" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W64" s="21" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X64" s="21" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y64" s="21" t="str">
         <f t="shared" si="11"/>
@@ -8605,7 +8605,7 @@
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
     </row>
-    <row r="66" ht="35" spans="1:31">
+    <row r="66" ht="24" spans="1:31">
       <c r="A66">
         <v>11</v>
       </c>
@@ -8823,11 +8823,11 @@
       </c>
       <c r="J68" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="21">
         <f t="shared" si="17"/>
@@ -8841,43 +8841,43 @@
       </c>
       <c r="O68" s="21" t="str">
         <f ca="1" t="shared" ref="O68:O119" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v/>
+        <v>L21103067</v>
       </c>
       <c r="P68" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "How great is the champagne? It's $12,000-great." ?</v>
       </c>
       <c r="Q68" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R68" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S68" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T68" s="21" t="str">
         <f ca="1" t="shared" ref="T68:T119" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v>L31103067</v>
+        <v/>
       </c>
       <c r="U68" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "How great is the champagne? It's $12,000-great." ?</v>
+        <v/>
       </c>
       <c r="V68" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W68" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X68" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y68" s="21" t="str">
         <f t="shared" si="26"/>
@@ -8919,11 +8919,11 @@
       </c>
       <c r="J69" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="21">
         <f t="shared" si="17"/>
@@ -8937,43 +8937,43 @@
       </c>
       <c r="O69" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103068</v>
       </c>
       <c r="P69" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I graduated from university debt-free。" ?</v>
       </c>
       <c r="Q69" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R69" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S69" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T69" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103068</v>
+        <v/>
       </c>
       <c r="U69" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I graduated from university debt-free。" ?</v>
+        <v/>
       </c>
       <c r="V69" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W69" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X69" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y69" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9085,7 +9085,7 @@
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
     </row>
-    <row r="71" ht="24" spans="1:31">
+    <row r="71" ht="35" spans="1:31">
       <c r="A71">
         <v>11</v>
       </c>
@@ -9207,11 +9207,11 @@
       </c>
       <c r="J72" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="21">
         <f t="shared" si="17"/>
@@ -9225,43 +9225,43 @@
       </c>
       <c r="O72" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103071</v>
+        <v/>
       </c>
       <c r="P72" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "My joy was short-lived" ?</v>
+        <v/>
       </c>
       <c r="Q72" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R72" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S72" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T72" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103071</v>
       </c>
       <c r="U72" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "My joy was short-lived" ?</v>
       </c>
       <c r="V72" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W72" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X72" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y72" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9399,11 +9399,11 @@
       </c>
       <c r="J74" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="21">
         <f t="shared" si="17"/>
@@ -9417,43 +9417,43 @@
       </c>
       <c r="O74" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103073</v>
+        <v/>
       </c>
       <c r="P74" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Passion is gender-neutralizing" ?</v>
+        <v/>
       </c>
       <c r="Q74" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103073</v>
       </c>
       <c r="U74" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Passion is gender-neutralizing" ?</v>
       </c>
       <c r="V74" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9495,11 +9495,11 @@
       </c>
       <c r="J75" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="21">
         <f t="shared" si="17"/>
@@ -9513,43 +9513,43 @@
       </c>
       <c r="O75" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103074</v>
       </c>
       <c r="P75" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "back-seat driver." ?</v>
       </c>
       <c r="Q75" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R75" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S75" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T75" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103074</v>
+        <v/>
       </c>
       <c r="U75" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "back-seat driver." ?</v>
+        <v/>
       </c>
       <c r="V75" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W75" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X75" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y75" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="J76" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="21">
         <f t="shared" si="17"/>
@@ -9609,43 +9609,43 @@
       </c>
       <c r="O76" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103075</v>
+        <v/>
       </c>
       <c r="P76" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I was back-seat driving her" ?</v>
+        <v/>
       </c>
       <c r="Q76" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R76" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S76" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T76" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103075</v>
       </c>
       <c r="U76" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I was back-seat driving her" ?</v>
       </c>
       <c r="V76" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W76" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X76" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y76" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9687,11 +9687,11 @@
       </c>
       <c r="J77" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="21">
         <f t="shared" si="17"/>
@@ -9705,43 +9705,43 @@
       </c>
       <c r="O77" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103076</v>
       </c>
       <c r="P77" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The plan is idiot-proof" ?</v>
       </c>
       <c r="Q77" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R77" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S77" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T77" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103076</v>
+        <v/>
       </c>
       <c r="U77" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The plan is idiot-proof" ?</v>
+        <v/>
       </c>
       <c r="V77" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W77" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X77" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y77" s="21" t="str">
         <f t="shared" si="26"/>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="J79" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="21">
         <f t="shared" si="17"/>
@@ -9897,43 +9897,43 @@
       </c>
       <c r="O79" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103078</v>
       </c>
       <c r="P79" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "left-over women" ?</v>
       </c>
       <c r="Q79" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R79" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S79" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T79" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103078</v>
+        <v/>
       </c>
       <c r="U79" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "left-over women" ?</v>
+        <v/>
       </c>
       <c r="V79" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W79" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X79" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y79" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10263,11 +10263,11 @@
       </c>
       <c r="J83" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="21">
         <f t="shared" si="17"/>
@@ -10281,43 +10281,43 @@
       </c>
       <c r="O83" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103082</v>
       </c>
       <c r="P83" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "gold-diggers" ?</v>
       </c>
       <c r="Q83" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R83" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S83" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T83" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103082</v>
+        <v/>
       </c>
       <c r="U83" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "gold-diggers" ?</v>
+        <v/>
       </c>
       <c r="V83" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W83" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X83" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y83" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10359,11 +10359,11 @@
       </c>
       <c r="J84" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="21">
         <f t="shared" si="17"/>
@@ -10377,43 +10377,43 @@
       </c>
       <c r="O84" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103083</v>
+        <v/>
       </c>
       <c r="P84" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He was Google-stalking her" ?</v>
+        <v/>
       </c>
       <c r="Q84" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R84" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S84" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T84" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103083</v>
       </c>
       <c r="U84" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He was Google-stalking her" ?</v>
       </c>
       <c r="V84" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W84" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X84" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y84" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10525,7 +10525,7 @@
       <c r="AD85" s="25"/>
       <c r="AE85" s="25"/>
     </row>
-    <row r="86" ht="24" spans="1:31">
+    <row r="86" ht="35" spans="1:31">
       <c r="A86">
         <v>11</v>
       </c>
@@ -10551,11 +10551,11 @@
       </c>
       <c r="J86" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="21">
         <f t="shared" si="17"/>
@@ -10569,43 +10569,43 @@
       </c>
       <c r="O86" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21103085</v>
       </c>
       <c r="P86" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Sunday is a non-publishing day" ?</v>
       </c>
       <c r="Q86" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R86" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S86" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T86" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31103085</v>
+        <v/>
       </c>
       <c r="U86" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Sunday is a non-publishing day" ?</v>
+        <v/>
       </c>
       <c r="V86" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W86" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X86" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y86" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="J88" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="21">
         <f t="shared" si="17"/>
@@ -10761,43 +10761,43 @@
       </c>
       <c r="O88" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103087</v>
+        <v/>
       </c>
       <c r="P88" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "picture-perfect" ?</v>
+        <v/>
       </c>
       <c r="Q88" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R88" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S88" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T88" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103087</v>
       </c>
       <c r="U88" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "picture-perfect" ?</v>
       </c>
       <c r="V88" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W88" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X88" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y88" s="21" t="str">
         <f t="shared" si="26"/>
@@ -10839,11 +10839,11 @@
       </c>
       <c r="J89" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="21">
         <f t="shared" si="17"/>
@@ -10857,43 +10857,43 @@
       </c>
       <c r="O89" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103088</v>
+        <v/>
       </c>
       <c r="P89" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "high-value target " ?</v>
+        <v/>
       </c>
       <c r="Q89" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R89" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S89" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T89" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103088</v>
       </c>
       <c r="U89" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "high-value target " ?</v>
       </c>
       <c r="V89" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W89" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X89" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y89" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11223,11 +11223,11 @@
       </c>
       <c r="J93" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="21">
         <f t="shared" si="17"/>
@@ -11241,43 +11241,43 @@
       </c>
       <c r="O93" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21103092</v>
+        <v/>
       </c>
       <c r="P93" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "dress-for-success suits" ?</v>
+        <v/>
       </c>
       <c r="Q93" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R93" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S93" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T93" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31103092</v>
       </c>
       <c r="U93" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "dress-for-success suits" ?</v>
       </c>
       <c r="V93" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W93" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X93" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y93" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11293,7 +11293,7 @@
       <c r="AD93" s="25"/>
       <c r="AE93" s="25"/>
     </row>
-    <row r="94" ht="24" spans="1:31">
+    <row r="94" ht="35" spans="1:31">
       <c r="A94">
         <v>11</v>
       </c>
@@ -11389,7 +11389,7 @@
       <c r="AD94" s="26"/>
       <c r="AE94" s="26"/>
     </row>
-    <row r="95" ht="35" spans="1:31">
+    <row r="95" ht="24" spans="1:31">
       <c r="A95">
         <v>11</v>
       </c>
@@ -11511,11 +11511,11 @@
       </c>
       <c r="J96" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="21">
         <f t="shared" si="17"/>
@@ -11529,43 +11529,43 @@
       </c>
       <c r="O96" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104095</v>
       </c>
       <c r="P96" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I screwed up" ?</v>
       </c>
       <c r="Q96" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R96" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S96" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T96" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104095</v>
+        <v/>
       </c>
       <c r="U96" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I screwed up" ?</v>
+        <v/>
       </c>
       <c r="V96" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W96" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X96" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y96" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11581,7 +11581,7 @@
       <c r="AD96" s="26"/>
       <c r="AE96" s="26"/>
     </row>
-    <row r="97" ht="35" spans="1:31">
+    <row r="97" ht="24" spans="1:31">
       <c r="A97">
         <v>11</v>
       </c>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="J97" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="21">
         <f t="shared" si="17"/>
@@ -11625,43 +11625,43 @@
       </c>
       <c r="O97" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104096</v>
+        <v/>
       </c>
       <c r="P97" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Our hotel reservations got all screwed up" ?</v>
+        <v/>
       </c>
       <c r="Q97" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R97" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S97" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T97" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104096</v>
       </c>
       <c r="U97" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Our hotel reservations got all screwed up" ?</v>
       </c>
       <c r="V97" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W97" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X97" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y97" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11677,7 +11677,7 @@
       <c r="AD97" s="25"/>
       <c r="AE97" s="25"/>
     </row>
-    <row r="98" ht="35" spans="1:31">
+    <row r="98" ht="24" spans="1:31">
       <c r="A98">
         <v>11</v>
       </c>
@@ -11703,11 +11703,11 @@
       </c>
       <c r="J98" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="21">
         <f t="shared" si="17"/>
@@ -11721,43 +11721,43 @@
       </c>
       <c r="O98" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104097</v>
+        <v/>
       </c>
       <c r="P98" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "another government screw-up" ?</v>
+        <v/>
       </c>
       <c r="Q98" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R98" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S98" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T98" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104097</v>
       </c>
       <c r="U98" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "another government screw-up" ?</v>
       </c>
       <c r="V98" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W98" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X98" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y98" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="J100" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="21">
         <f t="shared" si="17"/>
@@ -11913,43 +11913,43 @@
       </c>
       <c r="O100" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104099</v>
       </c>
       <c r="P100" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He flamed out quickly" ?</v>
       </c>
       <c r="Q100" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R100" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S100" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T100" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104099</v>
+        <v/>
       </c>
       <c r="U100" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He flamed out quickly" ?</v>
+        <v/>
       </c>
       <c r="V100" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W100" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X100" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y100" s="21" t="str">
         <f t="shared" si="26"/>
@@ -11965,7 +11965,7 @@
       <c r="AD100" s="25"/>
       <c r="AE100" s="25"/>
     </row>
-    <row r="101" ht="24" spans="1:31">
+    <row r="101" ht="35" spans="1:31">
       <c r="A101">
         <v>11</v>
       </c>
@@ -12087,11 +12087,11 @@
       </c>
       <c r="J102" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="21">
         <f t="shared" si="17"/>
@@ -12105,43 +12105,43 @@
       </c>
       <c r="O102" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104101</v>
+        <v/>
       </c>
       <c r="P102" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He has been ruled out of the next game through injury" ?</v>
+        <v/>
       </c>
       <c r="Q102" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R102" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S102" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T102" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104101</v>
       </c>
       <c r="U102" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He has been ruled out of the next game through injury" ?</v>
       </c>
       <c r="V102" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W102" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X102" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y102" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12279,11 +12279,11 @@
       </c>
       <c r="J104" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="21">
         <f t="shared" si="17"/>
@@ -12297,43 +12297,43 @@
       </c>
       <c r="O104" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104103</v>
       </c>
       <c r="P104" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Why don't you level with me?" ?</v>
       </c>
       <c r="Q104" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R104" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S104" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T104" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104103</v>
+        <v/>
       </c>
       <c r="U104" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Why don't you level with me?" ?</v>
+        <v/>
       </c>
       <c r="V104" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W104" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X104" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y104" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12375,11 +12375,11 @@
       </c>
       <c r="J105" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="21">
         <f t="shared" si="17"/>
@@ -12393,43 +12393,43 @@
       </c>
       <c r="O105" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104104</v>
       </c>
       <c r="P105" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Trump and Hillary are ready to square off" ?</v>
       </c>
       <c r="Q105" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104104</v>
+        <v/>
       </c>
       <c r="U105" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Trump and Hillary are ready to square off" ?</v>
+        <v/>
       </c>
       <c r="V105" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="J106" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="21">
         <f t="shared" si="17"/>
@@ -12489,43 +12489,43 @@
       </c>
       <c r="O106" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104105</v>
+        <v/>
       </c>
       <c r="P106" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The final list has been whittled down to just 4 candidates" ?</v>
+        <v/>
       </c>
       <c r="Q106" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R106" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S106" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T106" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104105</v>
       </c>
       <c r="U106" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The final list has been whittled down to just 4 candidates" ?</v>
       </c>
       <c r="V106" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W106" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X106" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y106" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12663,11 +12663,11 @@
       </c>
       <c r="J108" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="21">
         <f t="shared" si="17"/>
@@ -12681,43 +12681,43 @@
       </c>
       <c r="O108" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104107</v>
       </c>
       <c r="P108" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Her enthusiasm has rubbed off on the rest of the team" ?</v>
       </c>
       <c r="Q108" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R108" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S108" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T108" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104107</v>
+        <v/>
       </c>
       <c r="U108" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Her enthusiasm has rubbed off on the rest of the team" ?</v>
+        <v/>
       </c>
       <c r="V108" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W108" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X108" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y108" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="J109" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="21">
         <f t="shared" si="17"/>
@@ -12777,43 +12777,43 @@
       </c>
       <c r="O109" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21104108</v>
+        <v/>
       </c>
       <c r="P109" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "This issue is bubbling up" ?</v>
+        <v/>
       </c>
       <c r="Q109" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R109" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S109" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T109" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31104108</v>
       </c>
       <c r="U109" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "This issue is bubbling up" ?</v>
       </c>
       <c r="V109" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W109" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X109" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y109" s="21" t="str">
         <f t="shared" si="26"/>
@@ -12855,11 +12855,11 @@
       </c>
       <c r="J110" s="21">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="21">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="21">
         <f t="shared" si="17"/>
@@ -12873,43 +12873,43 @@
       </c>
       <c r="O110" s="21" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21104109</v>
       </c>
       <c r="P110" s="21" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He has bowed out of the competition" ?</v>
       </c>
       <c r="Q110" s="21" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R110" s="21" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S110" s="21" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T110" s="21" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31104109</v>
+        <v/>
       </c>
       <c r="U110" s="21" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He has bowed out of the competition" ?</v>
+        <v/>
       </c>
       <c r="V110" s="21" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W110" s="21" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X110" s="21" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y110" s="21" t="str">
         <f t="shared" si="26"/>
@@ -13117,7 +13117,7 @@
       <c r="AD112" s="25"/>
       <c r="AE112" s="25"/>
     </row>
-    <row r="113" ht="35" spans="1:31">
+    <row r="113" ht="24" spans="1:31">
       <c r="A113">
         <v>11</v>
       </c>
